--- a/biology/Botanique/Étangs_d'Ixelles/Étangs_d'Ixelles.xlsx
+++ b/biology/Botanique/Étangs_d'Ixelles/Étangs_d'Ixelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tangs_d%27Ixelles</t>
+          <t>Étangs_d'Ixelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les étangs d’Ixelles (en néerlandais : Vijvers van Elsene) actuels sont les « vestiges » de quatre étangs naturels[réf. souhaitée], situés à Ixelles, commune de l'agglomération de Bruxelles, en Belgique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tangs_d%27Ixelles</t>
+          <t>Étangs_d'Ixelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les étangs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le territoire d’Ixelles, on dénombrait à l'origine quatre étangs formés par le cours du Maelbeek. Le Grand Étang, partiellement asséché en 1860, qui couvrait la place Flagey, est l’actuel étang inférieur, les étangs Pennebroeck et Ghévaert furent réunis pour former l’étang supérieur et le Paddevijver, complètement asséché, devint l’esplanade de la Cambre, aujourd’hui dénommée square de la Croix-Rouge.
 Ensemble, avec l’abbaye de la Cambre, ils représentaient un des sites les plus attrayants de l’agglomération bruxelloise.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tangs_d%27Ixelles</t>
+          <t>Étangs_d'Ixelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
